--- a/imageCreationExcel/back/115/115_0.xlsx
+++ b/imageCreationExcel/back/115/115_0.xlsx
@@ -486,16 +486,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9073428353827888</v>
+        <v>0.9060023303436116</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.4119262857536736</v>
+        <v>0.9959771648203819</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10.17847689295311</v>
+        <v>12.86496689742938</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_C_gamma0.907_sharpness0.412_equalization10.178.jpg</t>
+          <t>1_0_contrast0.906_sharpness0.996_equalization12.865.jpg</t>
         </is>
       </c>
     </row>
@@ -528,24 +528,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6074174231071632</v>
+        <v>0.9881569679039494</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.1172229845416244</v>
+        <v>0.7708350324884308</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8.867728076932231</v>
+        <v>9.526527494342005</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_7_gamma0.607_sharpness0.117_equalization8.868.jpg</t>
+          <t>2_B_contrast0.988_gamma0.771_equalization9.527.jpg</t>
         </is>
       </c>
     </row>
@@ -570,16 +570,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.113393510139219</v>
+        <v>0.9027122010476973</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.4852389629231512</v>
+        <v>0.1616330368883065</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>23.6097607374057</v>
+        <v>22.56401186636847</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_P_contrast1.113_sharpness0.485_equalization23.61.jpg</t>
+          <t>3_1_gamma0.903_sharpness0.162_equalization22.564.jpg</t>
         </is>
       </c>
     </row>
@@ -612,24 +612,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9044898862765233</v>
+        <v>0.5191202126078198</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9321336066064109</v>
+        <v>0.03952329038348931</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>30.09575820598533</v>
+        <v>31.26992688845184</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_7_contrast0.904_gamma0.932_equalization30.096.jpg</t>
+          <t>4_0_gamma0.519_sharpness0.04_equalization31.27.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.090504757169022</v>
+        <v>29.15355396535391</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.09811033770187355</v>
+        <v>0.9303469768536105</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>17.41949075514276</v>
+        <v>0.3792024157461428</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_B_contrast1.091_sharpness0.098_equalization17.419.jpg</t>
+          <t>5_2_brightness29.154_gamma0.93_sharpness0.379.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.7417014919862233</v>
+        <v>1.163602244986014</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.07355415929703077</v>
+        <v>0.6962863905241063</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>14.64447299786209</v>
+        <v>0.1358149351582951</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_3_gamma0.742_sharpness0.074_equalization14.644.jpg</t>
+          <t>6_T_contrast1.164_gamma0.696_sharpness0.136.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.109373660671434</v>
+        <v>20.87933974517784</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.7824904066720858</v>
+        <v>1.005682656675614</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>11.72799943816527</v>
+        <v>0.6067654175090776</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_9_contrast1.109_gamma0.782_equalization11.728.jpg</t>
+          <t>7_T_brightness20.879_contrast1.006_gamma0.607.jpg</t>
         </is>
       </c>
     </row>
@@ -785,34 +785,34 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9479107192418662</v>
+        <v>7.613516408480502</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.4689269464490013</v>
+        <v>0.8769449877065896</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6.563983483088416</v>
+        <v>0.6550719963275071</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_T_gamma0.948_sharpness0.469_equalization6.564.jpg</t>
+          <t>8_T_brightness7.614_contrast0.877_sharpness0.655.jpg</t>
         </is>
       </c>
     </row>
@@ -822,24 +822,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.7749814216204645</v>
+        <v>1.012982752992638</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.7295280119281808</v>
+        <v>0.8647328190473533</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>12.26651648759812</v>
+        <v>18.15797801297723</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_9_gamma0.775_sharpness0.73_equalization12.267.jpg</t>
+          <t>9_I_contrast1.013_gamma0.865_equalization18.158.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8838467879868767</v>
+        <v>23.99664791356519</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.6735872064479917</v>
+        <v>1.095389610208169</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4.369651648162364</v>
+        <v>0.4185425704693322</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_2_contrast0.884_sharpness0.674_equalization4.37.jpg</t>
+          <t>10_S_brightness23.997_gamma1.095_sharpness0.419.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,15 +915,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13.34815617137362</v>
+        <v>2.045971599092971</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.071871702420854</v>
+        <v>0.7433051574081524</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.1973127082393005</v>
+        <v>0.6770834601504798</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_P_brightness13.348_contrast1.072_sharpness0.197.jpg</t>
+          <t>11_I_brightness2.046_gamma0.743_sharpness0.677.jpg</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -957,30 +957,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9593677149478407</v>
+        <v>0.8259123059967061</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.7976522290453754</v>
+        <v>0.5170041600647183</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>30.52000169322783</v>
+        <v>0.6790936729424888</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_P_contrast0.959_sharpness0.798_equalization30.52.jpg</t>
+          <t>12_B_contrast0.826_gamma0.517_sharpness0.679.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3.711948700150816</v>
+        <v>0.8734599782724343</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.191508799682603</v>
+        <v>0.989171155174887</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.3044671510701012</v>
+        <v>10.07816835941084</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_7_brightness3.712_contrast1.192_sharpness0.304.jpg</t>
+          <t>13_S_contrast0.873_sharpness0.989_equalization10.078.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,39 +1032,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>23.01536432281991</v>
+        <v>0.9151665079889288</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.705452781463425</v>
+        <v>0.6984637181716711</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.8269939776208968</v>
+        <v>28.5957167688258</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_C_brightness23.015_gamma0.705_sharpness0.827.jpg</t>
+          <t>14_B_contrast0.915_sharpness0.698_equalization28.596.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,15 +1083,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12.47244217160491</v>
+        <v>0.9682506601743912</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.095988477614309</v>
+        <v>1.178112910770299</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1099,14 +1099,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.8544908335243353</v>
+        <v>0.4233859431085862</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_9_brightness12.472_gamma1.096_sharpness0.854.jpg</t>
+          <t>15_P_brightness0.968_contrast1.178_sharpness0.423.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,24 +1116,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.016044047436685</v>
+        <v>0.6563680450057481</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.7322843540485288</v>
+        <v>0.8092277159378037</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1141,14 +1141,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>22.23359723109404</v>
+        <v>21.32137440555741</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_C_contrast1.016_gamma0.732_equalization22.234.jpg</t>
+          <t>16_B_gamma0.656_sharpness0.809_equalization21.321.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.934071655121613</v>
+        <v>0.5072814637290272</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.141055644871963</v>
+        <v>0.7753646855384346</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.6067486195872771</v>
+        <v>13.33093093068447</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_E_brightness2.934_contrast1.141_sharpness0.607.jpg</t>
+          <t>17_I_gamma0.507_sharpness0.775_equalization13.331.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.949045306635814</v>
+        <v>27.14703020281975</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.7592286301884028</v>
+        <v>1.148011838713697</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.6961499455383439</v>
+        <v>0.9442691002194641</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_I_contrast0.949_gamma0.759_sharpness0.696.jpg</t>
+          <t>18_8_brightness27.147_contrast1.148_gamma0.944.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>28.65249138525859</v>
+        <v>21.26775608129217</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1259,22 +1259,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9492693655643049</v>
+        <v>0.9960385347353576</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.5964845674434698</v>
+        <v>0.8505600364741098</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_T_brightness28.652_contrast0.949_sharpness0.596.jpg</t>
+          <t>19_8_brightness21.268_contrast0.996_gamma0.851.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28.92093253227251</v>
+        <v>1.127480825363714</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.083778347402372</v>
+        <v>0.5633919010568861</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.8008269646899194</v>
+        <v>0.1844741671266631</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_B_brightness28.921_contrast1.084_gamma0.801.jpg</t>
+          <t>20_P_contrast1.127_gamma0.563_sharpness0.184.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,16 +1326,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>15.07210508296681</v>
+        <v>1.115600440395795</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1343,22 +1343,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9555163066133652</v>
+        <v>0.9801710650621588</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.888053155502601</v>
+        <v>30.49837434931737</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_2_brightness15.072_gamma0.956_sharpness0.888.jpg</t>
+          <t>21_1_contrast1.116_gamma0.98_equalization30.498.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,30 +1377,30 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.3056255973353472</v>
+        <v>15.44387057376222</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.13067285448161</v>
+        <v>0.9939494627257164</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.6601698981359369</v>
+        <v>0.3479538069365695</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_T_brightness0.306_contrast1.131_gamma0.66.jpg</t>
+          <t>22_P_brightness15.444_gamma0.994_sharpness0.348.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,39 +1410,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.7316564669523671</v>
+        <v>2.077773763589696</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.1727340883620664</v>
+        <v>0.7295668655142443</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>16.42620550407454</v>
+        <v>0.9256083265343976</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_1_gamma0.732_sharpness0.173_equalization16.426.jpg</t>
+          <t>23_E_brightness2.078_gamma0.73_sharpness0.926.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22.66398821328499</v>
+        <v>16.63241207992569</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9960693596034409</v>
+        <v>1.017025321273729</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.8014370204299168</v>
+        <v>0.3409316341840563</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_T_brightness22.664_gamma0.996_sharpness0.801.jpg</t>
+          <t>24_S_brightness16.632_gamma1.017_sharpness0.341.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,39 +1494,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>28.36846398763158</v>
+        <v>0.9458432636591545</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.8442556645989316</v>
+        <v>0.6378129472057472</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.09982962452130335</v>
+        <v>29.31508158512345</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_1_brightness28.368_contrast0.844_sharpness0.1.jpg</t>
+          <t>25_S_contrast0.946_gamma0.638_equalization29.315.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,39 +1536,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.028543348552346</v>
+        <v>0.9747200443720383</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.075715743590556</v>
+        <v>1.026502030751112</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.8590062829541113</v>
+        <v>0.7809331589763853</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_2_contrast1.029_gamma1.076_sharpness0.859.jpg</t>
+          <t>26_P_brightness0.975_contrast1.027_gamma0.781.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9662295005764329</v>
+        <v>0.9443727306954307</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.9740161959433122</v>
+        <v>1.081159086917255</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>31.68173979038447</v>
+        <v>26.18758920213446</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_8_contrast0.966_gamma0.974_equalization31.682.jpg</t>
+          <t>27_9_contrast0.944_gamma1.081_equalization26.188.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,24 +1620,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.8398616446273647</v>
+        <v>1.112308502949617</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.2633089513560262</v>
+        <v>0.7438009763569717</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1645,14 +1645,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>20.96300585674481</v>
+        <v>7.50950713487841</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_T_gamma0.84_sharpness0.263_equalization20.963.jpg</t>
+          <t>28_B_contrast1.112_gamma0.744_equalization7.51.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.8516156879948245</v>
+        <v>0.9425104083782067</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.509629952614859</v>
+        <v>1.027587696484242</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>6.67874123495254</v>
+        <v>31.3385365434764</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_I_contrast0.852_gamma0.51_equalization6.679.jpg</t>
+          <t>29_T_contrast0.943_gamma1.028_equalization31.339.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.9101415877186058</v>
+        <v>1.05576101839628</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.6276998242850504</v>
+        <v>0.06867415212918317</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>31.78940662159442</v>
+        <v>18.28835644212566</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_0_contrast0.91_sharpness0.628_equalization31.789.jpg</t>
+          <t>30_2_contrast1.056_sharpness0.069_equalization18.288.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>18.91313693557165</v>
+        <v>0.5207708432690779</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9426711155524388</v>
+        <v>0.6664128328223363</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.6929789769703064</v>
+        <v>12.42553378344613</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_P_brightness18.913_gamma0.943_sharpness0.693.jpg</t>
+          <t>31_9_gamma0.521_sharpness0.666_equalization12.426.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,30 +1797,30 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.2680126431363927</v>
+        <v>20.62172959907387</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.6692076785095669</v>
+        <v>1.142520270634825</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.01282857483418764</v>
+        <v>1.087966140447181</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_P_brightness0.268_gamma0.669_sharpness0.013.jpg</t>
+          <t>32_0_brightness20.622_contrast1.143_gamma1.088.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.8898093799594835</v>
+        <v>6.001866685461911</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.4729267709203304</v>
+        <v>1.02920465479197</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>10.44312435733835</v>
+        <v>0.9036885436967008</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_I_contrast0.89_sharpness0.473_equalization10.443.jpg</t>
+          <t>33_T_brightness6.002_contrast1.029_gamma0.904.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,16 +1872,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9502987323126924</v>
+        <v>29.33586148493069</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1889,22 +1889,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.735977302786917</v>
+        <v>0.5090367260364544</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>15.45795337634063</v>
+        <v>0.7904561509482109</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_7_contrast0.95_gamma0.736_equalization15.458.jpg</t>
+          <t>34_8_brightness29.336_gamma0.509_sharpness0.79.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,16 +1914,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.122192482107562</v>
+        <v>1.215001334469895</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1931,22 +1931,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.7266882178278762</v>
+        <v>0.9746393933225789</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>8.368663402354475</v>
+        <v>0.6648976075505453</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_0_contrast1.122_gamma0.727_equalization8.369.jpg</t>
+          <t>35_3_brightness1.215_gamma0.975_sharpness0.665.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1965,30 +1965,30 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.9037482749700999</v>
+        <v>0.8325726023481397</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.3568586535662862</v>
+        <v>0.8945866998919263</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>24.25187152855373</v>
+        <v>0.5646263836566279</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_S_contrast0.904_sharpness0.357_equalization24.252.jpg</t>
+          <t>36_I_contrast0.833_gamma0.895_sharpness0.565.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.132605544977386</v>
+        <v>2.829217752242247</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.8569987853946435</v>
+        <v>1.1106649743016</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>7.782709698839101</v>
+        <v>0.3637901375261024</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_0_contrast1.133_sharpness0.857_equalization7.783.jpg</t>
+          <t>37_B_brightness2.829_contrast1.111_sharpness0.364.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.195795914573369</v>
+        <v>1.13103633977719</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,22 +2057,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.043899113731436</v>
+        <v>0.6499665691096604</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>9.559132828107835</v>
+        <v>0.1131622759282958</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_9_contrast1.196_gamma1.044_equalization9.559.jpg</t>
+          <t>38_I_contrast1.131_gamma0.65_sharpness0.113.jpg</t>
         </is>
       </c>
     </row>
@@ -2087,11 +2087,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.86997862264014</v>
+        <v>19.08162541668332</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.8412323231187028</v>
+        <v>1.081291246902681</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>31.10703776919719</v>
+        <v>0.7718150933108</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_E_contrast0.87_gamma0.841_equalization31.107.jpg</t>
+          <t>39_E_brightness19.082_gamma1.081_sharpness0.772.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.063387158250237</v>
+        <v>4.465182014879138</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.2734461397363458</v>
+        <v>1.164413575674873</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>18.76056482021658</v>
+        <v>0.6783604424355583</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_2_gamma1.063_sharpness0.273_equalization18.761.jpg</t>
+          <t>40_T_brightness4.465_contrast1.164_gamma0.678.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,39 +2166,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>14.9495328427416</v>
+        <v>1.039710201775966</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.030490471298842</v>
+        <v>0.5490628926038894</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.5162889174800991</v>
+        <v>20.65677950003711</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_E_brightness14.95_contrast1.03_gamma0.516.jpg</t>
+          <t>41_3_contrast1.04_sharpness0.549_equalization20.657.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.171051174718193</v>
+        <v>1.155953566092978</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.7151970301511658</v>
+        <v>0.7815471633363293</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.9944616606607728</v>
+        <v>0.8586627577546376</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_3_contrast1.171_gamma0.715_sharpness0.994.jpg</t>
+          <t>42_0_contrast1.156_gamma0.782_sharpness0.859.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,16 +2250,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.9762470702367986</v>
+        <v>0.8057493575440253</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.5957449370040908</v>
+        <v>0.8398473020084372</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>11.98855346434222</v>
+        <v>4.544085514936873</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_P_gamma0.976_sharpness0.596_equalization11.989.jpg</t>
+          <t>43_E_contrast0.806_sharpness0.84_equalization4.544.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,39 +2292,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.7973740862066759</v>
+        <v>26.03455896645702</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.06547195412338606</v>
+        <v>0.7197758794355307</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>26.99558278152672</v>
+        <v>0.3613471092985508</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_E_gamma0.797_sharpness0.065_equalization26.996.jpg</t>
+          <t>44_I_brightness26.035_gamma0.72_sharpness0.361.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>28.05162247403318</v>
+        <v>10.57434651153213</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.9394617193946262</v>
+        <v>0.8517906122748798</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2359,14 +2359,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1.010471014566848</v>
+        <v>0.5411938397658345</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_9_brightness28.052_contrast0.939_gamma1.01.jpg</t>
+          <t>45_C_brightness10.574_contrast0.852_gamma0.541.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2385,30 +2385,30 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.9883595883374844</v>
+        <v>0.8414098856396797</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.6704910318684829</v>
+        <v>0.6862415200595779</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.7416081835465241</v>
+        <v>11.83982039003563</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_S_contrast0.988_gamma0.67_sharpness0.742.jpg</t>
+          <t>46_7_contrast0.841_sharpness0.686_equalization11.84.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2427,15 +2427,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.007863446375163</v>
+        <v>1.107071155212227</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.2737591446928135</v>
+        <v>0.8004053318919482</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>16.35092496405368</v>
+        <v>6.346057704912416</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_C_contrast1.008_sharpness0.274_equalization16.351.jpg</t>
+          <t>47_P_contrast1.107_gamma0.8_equalization6.346.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,39 +2460,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.137429439581633</v>
+        <v>16.45993605655009</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.9576350694162985</v>
+        <v>0.903898650093319</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>29.3337612900074</v>
+        <v>0.7700208687624868</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_2_contrast1.137_sharpness0.958_equalization29.334.jpg</t>
+          <t>48_C_brightness16.46_contrast0.904_sharpness0.77.jpg</t>
         </is>
       </c>
     </row>
